--- a/jpcore-r4/feature/swg3-practioner免許コードの追加/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/feature/swg3-practioner免許コードの追加/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T15:01:03+00:00</t>
+    <t>2022-07-26T16:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg3-practioner免許コードの追加/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/feature/swg3-practioner免許コードの追加/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T16:26:43+00:00</t>
+    <t>2022-07-26T21:15:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg3-practioner免許コードの追加/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/feature/swg3-practioner免許コードの追加/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:15:41+00:00</t>
+    <t>2022-07-27T03:08:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg3-practioner免許コードの追加/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/feature/swg3-practioner免許コードの追加/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T03:08:26+00:00</t>
+    <t>2022-07-27T10:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg3-practioner免許コードの追加/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/feature/swg3-practioner免許コードの追加/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T10:14:11+00:00</t>
+    <t>2022-07-29T08:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg3-practioner免許コードの追加/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/feature/swg3-practioner免許コードの追加/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T08:56:42+00:00</t>
+    <t>2022-07-29T11:29:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -141,19 +141,19 @@
     <t>narcotics-practitioner</t>
   </si>
   <si>
-    <t>Narcotics Practitioner</t>
-  </si>
-  <si>
     <t>麻薬施用者番号</t>
   </si>
   <si>
+    <t>各都道府県にて管理される麻薬施用に関する免許番号</t>
+  </si>
+  <si>
     <t>medical-registration</t>
   </si>
   <si>
-    <t>Medical registration</t>
-  </si>
-  <si>
     <t>医籍登録番号</t>
+  </si>
+  <si>
+    <t>厚労省が発行する医師免許に割り振られる登録番号</t>
   </si>
 </sst>
 </file>

--- a/jpcore-r4/feature/swg3-practioner免許コードの追加/CodeSystem-jp-medicallicencecertificate-cs.xlsx
+++ b/jpcore-r4/feature/swg3-practioner免許コードの追加/CodeSystem-jp-medicallicencecertificate-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T11:29:59+00:00</t>
+    <t>2022-08-03T10:46:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
